--- a/Tests/Recherche Google/Default.xlsx
+++ b/Tests/Recherche Google/Default.xlsx
@@ -18,19 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>Cats</t>
+    <t>K9-BD-01_innertext_out</t>
   </si>
   <si>
-    <t>Birds</t>
+    <t xml:space="preserve">K9-BD-01 </t>
   </si>
   <si>
-    <t>Dogs</t>
-  </si>
-  <si>
-    <t>Reptiles</t>
+    <t>Finch</t>
   </si>
   <si>
     <t>Fish</t>
+  </si>
+  <si>
+    <t>Bulldog</t>
   </si>
   <si>
     <t>Animals</t>
@@ -178,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,10 +188,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -205,6 +205,26 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -214,16 +234,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,47 +544,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="40.765625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6171875" style="1" customWidth="1"/>
+    <col min="3" max="16378" width="8.8984375" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -577,10 +601,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,10 +620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
